--- a/medicine/Sexualité et sexologie/Sick__The_Life_and_Death_of_Bob_Flanagan,_Supermasochist/Sick__The_Life_and_Death_of_Bob_Flanagan,_Supermasochist.xlsx
+++ b/medicine/Sexualité et sexologie/Sick__The_Life_and_Death_of_Bob_Flanagan,_Supermasochist/Sick__The_Life_and_Death_of_Bob_Flanagan,_Supermasochist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sick: The Life and Death of Bob Flanagan, Supermasochist est un film américain documentaire réalisé par Kirby Dick, sorti en 1997.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Se sachant atteint d’une maladie douloureuse et incurable, Bob Flanagan va soulager le mal par le mal. Ce documentaire met en scène des pratiques extrêmes dans lesquelles le sujet atténue la douleur de la maladie en se livrant à la douleur orgiaque.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Sick: The Life and Death of Bob Flanagan, Supermasochist
 Réalisation : Kirby Dick
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kathe Burkhart : Intervieweur
 Kirby Dick : Intervieweur
@@ -616,7 +634,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sierra Award du meilleur documentaire au Las Vegas Film Critics Society Awards
 Prix du public du meilleur long métrage au Los Angeles Independent Film Festival</t>
